--- a/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
+++ b/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\penggajian\asset\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5EE01-1B60-41B8-A3A6-7C507E1AA516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC0363-C7B0-4930-A347-897CA3472D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CAE5FFD-6662-41DA-B693-4965D4BC20C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>DATA GUKAR</t>
   </si>
@@ -99,9 +99,6 @@
     <t>TABUNGAN QURBAN</t>
   </si>
   <si>
-    <t>TOTAL POTONGAN</t>
-  </si>
-  <si>
     <t>TUNJANGAN ANAK</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
   </si>
   <si>
     <t>Kabid BKK</t>
-  </si>
-  <si>
-    <t>TOTAL TUNJANGAN</t>
   </si>
   <si>
     <t>BPJS</t>
@@ -613,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C141464D-BD7B-4BCF-9FF6-395CBA6AAE97}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,13 +634,11 @@
     <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -673,10 +665,8 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -749,28 +739,22 @@
       <c r="X2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>1234</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="5">
         <v>100000</v>
@@ -821,7 +805,7 @@
         <v>45000</v>
       </c>
       <c r="V3" s="6">
-        <v>675000</v>
+        <v>45000</v>
       </c>
       <c r="W3" s="6">
         <v>45000</v>
@@ -829,28 +813,22 @@
       <c r="X3" s="6">
         <v>45000</v>
       </c>
-      <c r="Y3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>135000</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
         <v>331006</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5">
         <v>100000</v>
@@ -901,7 +879,7 @@
         <v>45000</v>
       </c>
       <c r="V4" s="6">
-        <v>675000</v>
+        <v>45000</v>
       </c>
       <c r="W4" s="6">
         <v>45000</v>
@@ -909,28 +887,22 @@
       <c r="X4" s="6">
         <v>45000</v>
       </c>
-      <c r="Y4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>135000</v>
-      </c>
     </row>
-    <row r="5" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>838656</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5">
         <v>100000</v>
@@ -981,7 +953,7 @@
         <v>45000</v>
       </c>
       <c r="V5" s="6">
-        <v>675000</v>
+        <v>45000</v>
       </c>
       <c r="W5" s="6">
         <v>45000</v>
@@ -989,28 +961,22 @@
       <c r="X5" s="6">
         <v>45000</v>
       </c>
-      <c r="Y5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>135000</v>
-      </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4">
         <v>1188171</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5">
         <v>100000</v>
@@ -1061,7 +1027,7 @@
         <v>45000</v>
       </c>
       <c r="V6" s="6">
-        <v>675000</v>
+        <v>45000</v>
       </c>
       <c r="W6" s="6">
         <v>45000</v>
@@ -1069,28 +1035,22 @@
       <c r="X6" s="6">
         <v>45000</v>
       </c>
-      <c r="Y6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>135000</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4">
         <v>1034905</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5">
         <v>100000</v>
@@ -1141,24 +1101,18 @@
         <v>45000</v>
       </c>
       <c r="V7" s="6">
-        <v>675000</v>
+        <v>45000</v>
       </c>
       <c r="W7" s="6">
         <v>45000</v>
       </c>
       <c r="X7" s="6">
         <v>45000</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>135000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
+++ b/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\penggajian\asset\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC0363-C7B0-4930-A347-897CA3472D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF50082-CDDF-43C4-BEBA-F80CE9FA3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CAE5FFD-6662-41DA-B693-4965D4BC20C9}"/>
+    <workbookView xWindow="4590" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{6CAE5FFD-6662-41DA-B693-4965D4BC20C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>DATA GUKAR</t>
   </si>
@@ -105,12 +105,6 @@
     <t>TUNJANGAN PANGAN</t>
   </si>
   <si>
-    <t>KELEBIHAN JAM</t>
-  </si>
-  <si>
-    <t>032024</t>
-  </si>
-  <si>
     <t>Alip Sasmito</t>
   </si>
   <si>
@@ -120,36 +114,24 @@
     <t>L</t>
   </si>
   <si>
-    <t>'032024</t>
-  </si>
-  <si>
     <t>Andriyan Suryadiningrat</t>
   </si>
   <si>
     <t>Ka Lab</t>
   </si>
   <si>
-    <t>032025</t>
-  </si>
-  <si>
     <t>Setya Rahmawanto, S.E, M.M.</t>
   </si>
   <si>
     <t>Kepala Sekolah</t>
   </si>
   <si>
-    <t>'032025</t>
-  </si>
-  <si>
     <t>Sri Agus Suratina, S.Pd.</t>
   </si>
   <si>
     <t>Staf WKS</t>
   </si>
   <si>
-    <t>032026</t>
-  </si>
-  <si>
     <t>Tri Sumarni, S.Pd</t>
   </si>
   <si>
@@ -157,13 +139,16 @@
   </si>
   <si>
     <t>BPJS</t>
+  </si>
+  <si>
+    <t>022024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +179,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -607,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C141464D-BD7B-4BCF-9FF6-395CBA6AAE97}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +626,9 @@
     <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -664,9 +654,8 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -736,25 +725,22 @@
       <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>1234</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="5">
         <v>100000</v>
@@ -762,42 +748,18 @@
       <c r="G3" s="6">
         <v>45000</v>
       </c>
-      <c r="H3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="I3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="J3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="K3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="L3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="M3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="N3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="O3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="P3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="R3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="S3" s="6">
-        <v>45000</v>
-      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="6">
         <v>45000</v>
       </c>
@@ -810,25 +772,22 @@
       <c r="W3" s="6">
         <v>45000</v>
       </c>
-      <c r="X3" s="6">
-        <v>45000</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>331006</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5">
         <v>100000</v>
@@ -836,42 +795,18 @@
       <c r="G4" s="6">
         <v>45000</v>
       </c>
-      <c r="H4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="I4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="K4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="L4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="M4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="N4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="O4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="P4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="R4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="S4" s="6">
-        <v>45000</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="6">
         <v>45000</v>
       </c>
@@ -884,25 +819,22 @@
       <c r="W4" s="6">
         <v>45000</v>
       </c>
-      <c r="X4" s="6">
-        <v>45000</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>838656</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5">
         <v>100000</v>
@@ -910,42 +842,18 @@
       <c r="G5" s="6">
         <v>45000</v>
       </c>
-      <c r="H5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="I5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="J5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="K5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="L5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="M5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="N5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="O5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="P5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="R5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="S5" s="6">
-        <v>45000</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="6">
         <v>45000</v>
       </c>
@@ -958,25 +866,22 @@
       <c r="W5" s="6">
         <v>45000</v>
       </c>
-      <c r="X5" s="6">
-        <v>45000</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>1188171</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5">
         <v>100000</v>
@@ -984,42 +889,18 @@
       <c r="G6" s="6">
         <v>45000</v>
       </c>
-      <c r="H6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="I6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="J6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="K6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="L6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="M6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="N6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="O6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="P6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="R6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="S6" s="6">
-        <v>45000</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="6">
         <v>45000</v>
       </c>
@@ -1032,25 +913,22 @@
       <c r="W6" s="6">
         <v>45000</v>
       </c>
-      <c r="X6" s="6">
-        <v>45000</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>1034905</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>100000</v>
@@ -1058,42 +936,18 @@
       <c r="G7" s="6">
         <v>45000</v>
       </c>
-      <c r="H7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="I7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="J7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="K7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="L7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="M7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="N7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="O7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="P7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="R7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="S7" s="6">
-        <v>45000</v>
-      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="6">
         <v>45000</v>
       </c>
@@ -1104,16 +958,14 @@
         <v>45000</v>
       </c>
       <c r="W7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="X7" s="6">
         <v>45000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:W1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
+++ b/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\penggajian\asset\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF50082-CDDF-43C4-BEBA-F80CE9FA3D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388296DF-7A48-4442-B3B0-E39AC3070780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{6CAE5FFD-6662-41DA-B693-4965D4BC20C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CAE5FFD-6662-41DA-B693-4965D4BC20C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +284,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C141464D-BD7B-4BCF-9FF6-395CBA6AAE97}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,34 +744,58 @@
         <v>25</v>
       </c>
       <c r="F3" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
       </c>
       <c r="U3" s="6">
-        <v>45000</v>
-      </c>
-      <c r="V3" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
       </c>
       <c r="W3" s="6">
-        <v>45000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -790,34 +815,58 @@
         <v>25</v>
       </c>
       <c r="F4" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
       </c>
       <c r="U4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="V4" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
       </c>
       <c r="W4" s="6">
-        <v>45000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
@@ -837,34 +886,58 @@
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
       </c>
       <c r="U5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="V5" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
       </c>
       <c r="W5" s="6">
-        <v>45000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -884,34 +957,58 @@
         <v>25</v>
       </c>
       <c r="F6" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
       </c>
       <c r="U6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="V6" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
       </c>
       <c r="W6" s="6">
-        <v>45000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -931,35 +1028,62 @@
         <v>25</v>
       </c>
       <c r="F7" s="5">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
       </c>
       <c r="U7" s="6">
-        <v>45000</v>
-      </c>
-      <c r="V7" s="6">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
       </c>
       <c r="W7" s="6">
-        <v>45000</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
+++ b/asset/file/DATA TRANSPORT DAN POTONGAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\penggajian\asset\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388296DF-7A48-4442-B3B0-E39AC3070780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B249C9A-D59F-46F4-926F-C84AA6B7C938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CAE5FFD-6662-41DA-B693-4965D4BC20C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>DATA GUKAR</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>022024</t>
+  </si>
+  <si>
+    <t>TUNJANGAN PASANGAN</t>
   </si>
 </sst>
 </file>
@@ -278,13 +281,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C141464D-BD7B-4BCF-9FF6-395CBA6AAE97}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,36 +630,38 @@
     <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,8 +731,11 @@
       <c r="W2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="X2" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -797,8 +805,11 @@
       <c r="W3" s="6">
         <v>0</v>
       </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -868,8 +879,11 @@
       <c r="W4" s="6">
         <v>0</v>
       </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="W5" s="6">
         <v>0</v>
       </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="W6" s="6">
         <v>0</v>
       </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1081,13 +1101,16 @@
       <c r="W7" s="6">
         <v>0</v>
       </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="10"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
